--- a/src/template/EmployeeList.xlsx
+++ b/src/template/EmployeeList.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\tools\xls2docs\src\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\tools\xls2doc\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBF929B-EEC2-42A5-9534-AFEB2571C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F54CF2-7405-4968-9630-7F16BEC0A99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{98AD94BF-A7CA-4881-94D3-E4FC97A617FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11040" xr2:uid="{98AD94BF-A7CA-4881-94D3-E4FC97A617FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Lĩnh Tào</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0A07F0A-0EAE-42EF-BF96-37FB934B097D}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F0A07F0A-0EAE-42EF-BF96-37FB934B097D}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{21D77807-48C5-4C0E-8E6E-557A33EAB189}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{21D77807-48C5-4C0E-8E6E-557A33EAB189}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{402D7EC4-A10D-4720-985D-07954771DB64}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{402D7EC4-A10D-4720-985D-07954771DB64}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D9276F3D-2369-47F5-939D-7E1A8C39F3A6}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D9276F3D-2369-47F5-939D-7E1A8C39F3A6}">
       <text>
         <r>
           <rPr>
@@ -138,12 +138,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{8AD2A628-E7FC-44E2-A28B-77C7EB9D3DE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CCCD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{201FA0BB-0C96-4274-A034-F406DD7197B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày cấp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{265D214B-C907-4FA2-BD95-B668DDA3DA2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Loại hợp đồng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6FC33E3C-9F46-4D93-8FCC-A5189987EDA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày hiệu lực</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C5948A41-F41F-48B3-892D-C924B4F4413A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ngày hết hiệu lực</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{49B006EA-50E1-4276-B567-BC4856F2BF0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Thời gian làm việc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{A72C0592-18B0-4F04-831E-C31EF93591A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Địa điểm làm việc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{91595DCD-8206-4DEE-B32D-726E3707A48D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Công việc phải làm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C2EC334A-D849-4FC2-AF01-694A913B3DB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hình thức trả lương</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{05A5B8D5-B0E6-4302-BEF8-5BC3C71E0505}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mức lương</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7120D682-ACC5-442B-8C1F-ABFAEFDE37E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lĩnh Tào:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mức lương (chữ)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -181,9 +445,6 @@
     <t>JobType</t>
   </si>
   <si>
-    <t>Jobs</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -196,18 +457,12 @@
     <t>Kinh tế</t>
   </si>
   <si>
-    <t>Toàn thời gian</t>
-  </si>
-  <si>
     <t>Mười bốn triệu đồng chẵn</t>
   </si>
   <si>
     <t>EmployeeAdress</t>
   </si>
   <si>
-    <t>Kinh doanh các sản phẩm của công ty; phát triển các sản phẩm</t>
-  </si>
-  <si>
     <t>SalaryMode</t>
   </si>
   <si>
@@ -217,9 +472,6 @@
     <t>Mười hai triệu đồng chẵn</t>
   </si>
   <si>
-    <t>Lập trình phát triển phần mềm</t>
-  </si>
-  <si>
     <t>Trình độ</t>
   </si>
   <si>
@@ -238,12 +490,6 @@
     <t>WageType</t>
   </si>
   <si>
-    <t>tháng</t>
-  </si>
-  <si>
-    <t>giờ</t>
-  </si>
-  <si>
     <t>Nguyễn Lâm Sinh</t>
   </si>
   <si>
@@ -256,13 +502,250 @@
     <t>Nguyễn Trường Hải</t>
   </si>
   <si>
-    <t>Canh Hiển, Vân Canh, Bình Định</t>
-  </si>
-  <si>
     <t>Không xác định thời hạn</t>
   </si>
   <si>
-    <t>Quản lý nhân sự bộ phận kỹ thuật</t>
+    <t>Đinh Ngọc Điệp</t>
+  </si>
+  <si>
+    <t>Xác định thời hạn</t>
+  </si>
+  <si>
+    <t>Văn phòng công ty</t>
+  </si>
+  <si>
+    <t>Làm việc từ xa</t>
+  </si>
+  <si>
+    <t>Phát triển và quản lý nhân sự bộ phận kỹ thuật; Phát triển các sản phẩm cho công ty</t>
+  </si>
+  <si>
+    <t>Phát triển phần mềm PACS; Hỗ trợ xây dựng giải pháp &amp; kiến trúc cho các sản phẩm của công ty</t>
+  </si>
+  <si>
+    <t>Từ thứ 2 đến thứ  6 (trừ ngày nghỉ lễ theo quy định). Tối đa 8 giờ mỗi ngày và tối đa 40 giờ mỗi tuần</t>
+  </si>
+  <si>
+    <t>Tối đa 8 giờ mỗi ngày và tối đa 40 giờ mỗi tuần</t>
+  </si>
+  <si>
+    <t>Ba mươi triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>Mười lăm triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>bà</t>
+  </si>
+  <si>
+    <t>Đặng Kỳ Duyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ni</t>
+  </si>
+  <si>
+    <t>Hồ Hoàng Ý</t>
+  </si>
+  <si>
+    <t>Phan Nhật Tân</t>
+  </si>
+  <si>
+    <t>Mười triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>Sáu triệu năm trăm nghìn đồng chẵn.</t>
+  </si>
+  <si>
+    <t>Năm triệu năm trăm nghìn đồng chẵn</t>
+  </si>
+  <si>
+    <t>Sáu triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>Lập trình phát triển sản phẩm; Triển khai sản phẩm</t>
+  </si>
+  <si>
+    <t>Lập trình sản phẩm; Hỗ trợ phát triển và quản lý nhân sự bộ phận kỹ thuật</t>
+  </si>
+  <si>
+    <t>Bảy triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>Thiết kế sản phẩm; Xây dựng hồ sơ sản phẩm; Triển khai sản phẩm</t>
+  </si>
+  <si>
+    <t>15.000.000</t>
+  </si>
+  <si>
+    <t>14.000.000</t>
+  </si>
+  <si>
+    <t>12.000.000</t>
+  </si>
+  <si>
+    <t>30.000.000</t>
+  </si>
+  <si>
+    <t>7.000.000</t>
+  </si>
+  <si>
+    <t>10.000.000</t>
+  </si>
+  <si>
+    <t>6.500.000</t>
+  </si>
+  <si>
+    <t>5.500.000</t>
+  </si>
+  <si>
+    <t>6.000.000</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cộng tác viên</t>
+  </si>
+  <si>
+    <t>Tối đa 4 giờ mỗi ngày và tối đa 20 giờ mỗi tuần</t>
+  </si>
+  <si>
+    <t>Lập trình phát triển sản phẩm; Tư vấn giải pháp</t>
+  </si>
+  <si>
+    <t>250.000</t>
+  </si>
+  <si>
+    <t>Hai trăm năm mươi nghìn đồng</t>
+  </si>
+  <si>
+    <t>Trần Lê Anh Quốc</t>
+  </si>
+  <si>
+    <t>Lưu Văn Đạt</t>
+  </si>
+  <si>
+    <t>Lê Quốc Mạnh</t>
+  </si>
+  <si>
+    <t>thị trấn KBang, huyện KBang, tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>Trung Tín 1, Thị Trấn Tuy Phước, Tuy Phước, Bình Định</t>
+  </si>
+  <si>
+    <t>Tổ 3 phường Phù Đổng, thành phố Pleiku, Gia Lai</t>
+  </si>
+  <si>
+    <t>Phường Ngô Mây, thành phố Quy Nhơn,tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Cát Chánh, Phù cát, Bình Định</t>
+  </si>
+  <si>
+    <t>44/76/2 Trần Hưng Đạo, P.Hải Cảng, Quy Nhơn, Bình Định</t>
+  </si>
+  <si>
+    <t>Mỹ Thọ, Phù Mỹ, Bình Định</t>
+  </si>
+  <si>
+    <t>Cát Thành, Phù Cát, Bình Định</t>
+  </si>
+  <si>
+    <t>theo tháng</t>
+  </si>
+  <si>
+    <t>theo giờ</t>
+  </si>
+  <si>
+    <t>Văn phòng công ty hoặc làm việc từ xa</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Kinh doanh các sản phẩm của công ty; Giám sát chất lượng và phát triển các sản phẩm</t>
+  </si>
+  <si>
+    <t>đã bao gồm phúc lợi</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>052092001137</t>
+  </si>
+  <si>
+    <t>052090012371</t>
+  </si>
+  <si>
+    <t>034090017500</t>
+  </si>
+  <si>
+    <t>052098015935</t>
+  </si>
+  <si>
+    <t>052202004918</t>
+  </si>
+  <si>
+    <t>052099014069</t>
+  </si>
+  <si>
+    <t>064201007247</t>
+  </si>
+  <si>
+    <t>052201013071</t>
+  </si>
+  <si>
+    <t>052201004940</t>
+  </si>
+  <si>
+    <t>052095000782</t>
+  </si>
+  <si>
+    <t>052194015089</t>
+  </si>
+  <si>
+    <t>Thôn Hiển Đông, Canh Hiển, Vân Canh, Bình Định</t>
   </si>
 </sst>
 </file>
@@ -273,11 +756,11 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -298,10 +781,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,22 +828,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,480 +1198,2171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EA0542-1988-4BDD-B63F-70990987B895}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:U427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>IF(K2="","",IF(K2="Cộng tác viên",COUNTIF($K$2:K2,"Cộng tác viên"),COUNTA($K$2:K2)-COUNTIF($K$2:K2,"Cộng tác viên")))</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3">
+        <v>32908</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44419</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="10">
+        <v>15000000</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f>IF(K3="","",IF(K3="Cộng tác viên",COUNTIF($K$2:K3,"Cộng tác viên"),COUNTA($K$2:K3)-COUNTIF($K$2:K3,"Cộng tác viên")))</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3">
+        <v>33878</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44301</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="10">
+        <v>14000000</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>IF(K4="","",IF(K4="Cộng tác viên",COUNTIF($K$2:K4,"Cộng tác viên"),COUNTA($K$2:K4)-COUNTIF($K$2:K4,"Cộng tác viên")))</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>35680</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44296</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="10">
+        <v>12000000</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>IF(K5="","",IF(K5="Cộng tác viên",COUNTIF($K$2:K5,"Cộng tác viên"),COUNTA($K$2:K5)-COUNTIF($K$2:K5,"Cộng tác viên")))</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>33088</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44401</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="10">
+        <v>30000000</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>IF(K6="","",IF(K6="Cộng tác viên",COUNTIF($K$2:K6,"Cộng tác viên"),COUNTA($K$2:K6)-COUNTIF($K$2:K6,"Cộng tác viên")))</f>
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3">
+        <v>34597</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44419</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M6" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="10">
+        <v>7000000</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f>IF(K7="","",IF(K7="Cộng tác viên",COUNTIF($K$2:K7,"Cộng tác viên"),COUNTA($K$2:K7)-COUNTIF($K$2:K7,"Cộng tác viên")))</f>
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3">
+        <v>36067</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44840</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M7" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>IF(K8="","",IF(K8="Cộng tác viên",COUNTIF($K$2:K8,"Cộng tác viên"),COUNTA($K$2:K8)-COUNTIF($K$2:K8,"Cộng tác viên")))</f>
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3">
+        <v>37533</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44326</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="10">
+        <v>6500000</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f>IF(K9="","",IF(K9="Cộng tác viên",COUNTIF($K$2:K9,"Cộng tác viên"),COUNTA($K$2:K9)-COUNTIF($K$2:K9,"Cộng tác viên")))</f>
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36193</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45223</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="10">
+        <v>5500000</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f>IF(K10="","",IF(K10="Cộng tác viên",COUNTIF($K$2:K10,"Cộng tác viên"),COUNTA($K$2:K10)-COUNTIF($K$2:K10,"Cộng tác viên")))</f>
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37052</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44440</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M10" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="10">
+        <v>6000000</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f>IF(K11="","",IF(K11="Cộng tác viên",COUNTIF($K$2:K11,"Cộng tác viên"),COUNTA($K$2:K11)-COUNTIF($K$2:K11,"Cộng tác viên")))</f>
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44525</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44375</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="10">
+        <v>6000000</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>IF(K12="","",IF(K12="Cộng tác viên",COUNTIF($K$2:K12,"Cộng tác viên"),COUNTA($K$2:K12)-COUNTIF($K$2:K12,"Cộng tác viên")))</f>
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37174</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44325</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="10">
+        <v>6000000</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>IF(K13="","",IF(K13="Cộng tác viên",COUNTIF($K$2:K13,"Cộng tác viên"),COUNTA($K$2:K13)-COUNTIF($K$2:K13,"Cộng tác viên")))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3">
         <v>45323</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="3">
+        <v>45323</v>
+      </c>
+      <c r="M13" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45293</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3">
-        <v>33878</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>14000000</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3">
-        <v>33878</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3">
-        <v>41795</v>
-      </c>
-      <c r="I4" s="1">
-        <v>120</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>12000000</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="P13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="10">
+        <v>250000</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>IF(K14="","",IF(K14="Cộng tác viên",COUNTIF($K$2:K14,"Cộng tác viên"),COUNTA($K$2:K14)-COUNTIF($K$2:K14,"Cộng tác viên")))</f>
+        <v/>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1162,21 +3374,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/template/EmployeeList.xlsx
+++ b/src/template/EmployeeList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\tools\xls2doc\src\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\tools\xls2docs\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F54CF2-7405-4968-9630-7F16BEC0A99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E5317-1AE4-44FC-B58E-8BE938024F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11040" xr2:uid="{98AD94BF-A7CA-4881-94D3-E4FC97A617FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11310" xr2:uid="{98AD94BF-A7CA-4881-94D3-E4FC97A617FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,9 +451,6 @@
     <t>SalaryText</t>
   </si>
   <si>
-    <t>Tây Vinh, Tây Sơn, Bình Định</t>
-  </si>
-  <si>
     <t>Kinh tế</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>Nguyễn Lâm Sinh</t>
   </si>
   <si>
-    <t>Nhơn Thọ, An Nhơn, Bình Định</t>
-  </si>
-  <si>
     <t>Cử nhân</t>
   </si>
   <si>
@@ -523,9 +517,6 @@
     <t>Phát triển phần mềm PACS; Hỗ trợ xây dựng giải pháp &amp; kiến trúc cho các sản phẩm của công ty</t>
   </si>
   <si>
-    <t>Từ thứ 2 đến thứ  6 (trừ ngày nghỉ lễ theo quy định). Tối đa 8 giờ mỗi ngày và tối đa 40 giờ mỗi tuần</t>
-  </si>
-  <si>
     <t>Tối đa 8 giờ mỗi ngày và tối đa 40 giờ mỗi tuần</t>
   </si>
   <si>
@@ -634,30 +625,6 @@
     <t>Lê Quốc Mạnh</t>
   </si>
   <si>
-    <t>thị trấn KBang, huyện KBang, tỉnh Gia Lai</t>
-  </si>
-  <si>
-    <t>Trung Tín 1, Thị Trấn Tuy Phước, Tuy Phước, Bình Định</t>
-  </si>
-  <si>
-    <t>Tổ 3 phường Phù Đổng, thành phố Pleiku, Gia Lai</t>
-  </si>
-  <si>
-    <t>Phường Ngô Mây, thành phố Quy Nhơn,tỉnh Bình Định</t>
-  </si>
-  <si>
-    <t>Cát Chánh, Phù cát, Bình Định</t>
-  </si>
-  <si>
-    <t>44/76/2 Trần Hưng Đạo, P.Hải Cảng, Quy Nhơn, Bình Định</t>
-  </si>
-  <si>
-    <t>Mỹ Thọ, Phù Mỹ, Bình Định</t>
-  </si>
-  <si>
-    <t>Cát Thành, Phù Cát, Bình Định</t>
-  </si>
-  <si>
     <t>theo tháng</t>
   </si>
   <si>
@@ -746,6 +713,39 @@
   </si>
   <si>
     <t>Thôn Hiển Đông, Canh Hiển, Vân Canh, Bình Định</t>
+  </si>
+  <si>
+    <t>tối đa 8 giờ mỗi ngày và tối đa 40 giờ mỗi tuần</t>
+  </si>
+  <si>
+    <t>Thôn Thọ Lộc 1, Nhơn Thọ, An Nhơn, Bình Định</t>
+  </si>
+  <si>
+    <t>Thôn An Vinh 2, Tây Vinh, Tây Sơn, Bình Định</t>
+  </si>
+  <si>
+    <t>Thị trấn KBang, huyện KBang, tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>Thôn Phú Trung, Cát Thành, Phù Cát, Bình Định</t>
+  </si>
+  <si>
+    <t>Thôn Chánh Đạo, Mỹ Thọ, Phù Mỹ, Bình Định</t>
+  </si>
+  <si>
+    <t>44/76/2 Trần Hưng Đạo, phường Hải Cảng, thành phố Quy Nhơn, tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Thôn Trung Tín 1, Thị Trấn Tuy Phước, Tuy Phước, Bình Định</t>
+  </si>
+  <si>
+    <t>Tổ 3 phường Phù Đổng, thành phố Pleiku, tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>Tổ 11, khu vực 2, phường Nhơn Bình, thành phố Quy Nhơn, tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Tổ 6, Khu vực 8, phường Ngô Mây, thành phố Quy Nhơn,tỉnh Bình Định</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -781,7 +781,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -794,7 +794,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1201,38 +1201,38 @@
   <dimension ref="A1:U427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="12.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>5</v>
@@ -1274,19 +1274,19 @@
         <v>11</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>12</v>
@@ -1301,62 +1301,62 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3">
         <v>45323</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3">
         <v>32908</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3">
         <v>44419</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L2" s="3">
         <v>45323</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S2" s="10">
         <v>15000000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,62 +1365,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3">
         <v>45293</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="3">
         <v>33878</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I3" s="3">
         <v>44301</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3">
         <v>45293</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S3" s="10">
         <v>14000000</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,94 +1429,94 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3">
         <v>45323</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3">
         <v>35680</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I4" s="3">
         <v>44296</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3">
         <v>45323</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S4" s="10">
         <v>12000000</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>IF(K5="","",IF(K5="Cộng tác viên",COUNTIF($K$2:K5,"Cộng tác viên"),COUNTA($K$2:K5)-COUNTIF($K$2:K5,"Cộng tác viên")))</f>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3">
         <v>45323</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3">
         <v>33088</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I5" s="3">
         <v>44401</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3">
         <v>45323</v>
@@ -1525,28 +1525,28 @@
         <v>45688</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S5" s="10">
         <v>30000000</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,32 +1555,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
         <v>45323</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3">
         <v>34597</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I6" s="3">
         <v>44419</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="3">
         <v>45323</v>
@@ -1589,28 +1589,28 @@
         <v>45688</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S6" s="10">
         <v>7000000</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,32 +1619,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3">
         <v>45323</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>36067</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I7" s="3">
         <v>44840</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="3">
         <v>45323</v>
@@ -1653,28 +1653,28 @@
         <v>45688</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S7" s="10">
         <v>10000000</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1683,32 +1683,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
         <v>45323</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3">
         <v>37533</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I8" s="3">
         <v>44326</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="3">
         <v>45323</v>
@@ -1717,28 +1717,28 @@
         <v>45688</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S8" s="10">
         <v>6500000</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,32 +1747,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>45323</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3">
         <v>36193</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I9" s="3">
         <v>45223</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="3">
         <v>45323</v>
@@ -1781,28 +1781,28 @@
         <v>45688</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S9" s="10">
         <v>5500000</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,32 +1811,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <v>45323</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>37052</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I10" s="3">
         <v>44440</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" s="3">
         <v>45323</v>
@@ -1845,28 +1845,28 @@
         <v>45688</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S10" s="10">
         <v>6000000</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,32 +1875,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3">
         <v>45323</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3">
         <v>44525</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I11" s="3">
         <v>44375</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3">
         <v>45323</v>
@@ -1909,28 +1909,28 @@
         <v>45688</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S11" s="10">
         <v>6000000</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,32 +1939,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3">
         <v>45323</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3">
         <v>37174</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I12" s="3">
         <v>44325</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="3">
         <v>45323</v>
@@ -1973,28 +1973,28 @@
         <v>45688</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S12" s="10">
         <v>6000000</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,16 +2003,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
         <v>45323</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -2020,7 +2020,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L13" s="3">
         <v>45323</v>
@@ -2029,28 +2029,28 @@
         <v>45688</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S13" s="10">
         <v>250000</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,21 +3374,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/template/EmployeeList.xlsx
+++ b/src/template/EmployeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\tools\xls2docs\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E5317-1AE4-44FC-B58E-8BE938024F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C81E3-5749-499E-9457-30B76CB7D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11310" xr2:uid="{98AD94BF-A7CA-4881-94D3-E4FC97A617FC}"/>
   </bookViews>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -430,9 +430,6 @@
     <t>IssueDate</t>
   </si>
   <si>
-    <t>Certificate</t>
-  </si>
-  <si>
     <t>ContractType</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>SalaryText</t>
   </si>
   <si>
-    <t>Kinh tế</t>
-  </si>
-  <si>
     <t>Mười bốn triệu đồng chẵn</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>Nguyễn Lâm Sinh</t>
   </si>
   <si>
-    <t>Cử nhân</t>
-  </si>
-  <si>
     <t>Nguyễn Trường Hải</t>
   </si>
   <si>
@@ -746,6 +737,18 @@
   </si>
   <si>
     <t>Tổ 6, Khu vực 8, phường Ngô Mây, thành phố Quy Nhơn,tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Tổ 9, ấp 3, Phú Điền, Tân Phú, Đồng Nai</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>Cục CSQLHC về TTXH</t>
+  </si>
+  <si>
+    <t>CA tỉnh Đồng Nai</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1204,10 @@
   <dimension ref="A1:U427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1220,7 @@
     <col min="7" max="7" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.25" style="1" customWidth="1"/>
@@ -1230,9 +1233,9 @@
     <col min="22" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1250,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>5</v>
@@ -1259,40 +1262,40 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,62 +1304,62 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3">
         <v>45323</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3">
         <v>32908</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3">
         <v>44419</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" s="3">
         <v>45323</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S2" s="10">
         <v>15000000</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,62 +1368,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3">
         <v>45293</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3">
         <v>33878</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I3" s="3">
         <v>44301</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3">
         <v>45293</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S3" s="10">
         <v>14000000</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,60 +1432,62 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3">
         <v>45323</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>35680</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I4" s="3">
         <v>44296</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3">
         <v>45323</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S4" s="10">
         <v>12000000</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1491,32 +1496,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3">
         <v>45323</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>33088</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3">
         <v>44401</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3">
         <v>45323</v>
@@ -1525,28 +1532,28 @@
         <v>45688</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S5" s="10">
         <v>30000000</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,32 +1562,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3">
         <v>45323</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3">
         <v>34597</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="3">
         <v>44419</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" s="3">
         <v>45323</v>
@@ -1589,28 +1598,28 @@
         <v>45688</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S6" s="10">
         <v>7000000</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,32 +1628,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3">
         <v>45323</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
         <v>36067</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="3">
         <v>44840</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3">
         <v>45323</v>
@@ -1653,28 +1664,28 @@
         <v>45688</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S7" s="10">
         <v>10000000</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1683,32 +1694,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3">
         <v>45323</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3">
         <v>37533</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I8" s="3">
         <v>44326</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="3">
         <v>45323</v>
@@ -1717,28 +1730,28 @@
         <v>45688</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S8" s="10">
         <v>6500000</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,32 +1760,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3">
         <v>45323</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3">
         <v>36193</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I9" s="3">
         <v>45223</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L9" s="3">
         <v>45323</v>
@@ -1781,28 +1796,28 @@
         <v>45688</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S9" s="10">
         <v>5500000</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,32 +1826,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3">
         <v>45323</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3">
         <v>37052</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I10" s="3">
         <v>44440</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L10" s="3">
         <v>45323</v>
@@ -1845,28 +1862,28 @@
         <v>45688</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S10" s="10">
         <v>6000000</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,32 +1892,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3">
         <v>45323</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3">
         <v>44525</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3">
         <v>44375</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L11" s="3">
         <v>45323</v>
@@ -1909,28 +1928,28 @@
         <v>45688</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S11" s="10">
         <v>6000000</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,32 +1958,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3">
         <v>45323</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3">
         <v>37174</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" s="3">
         <v>44325</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L12" s="3">
         <v>45323</v>
@@ -1973,28 +1994,28 @@
         <v>45688</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S12" s="10">
         <v>6000000</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,24 +2024,34 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3">
         <v>45323</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="3">
+        <v>35495</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="4">
+        <v>272524872</v>
+      </c>
+      <c r="I13" s="3">
+        <v>41060</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3">
         <v>45323</v>
@@ -2029,28 +2060,28 @@
         <v>45688</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S13" s="10">
         <v>250000</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,13 +3413,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
